--- a/Problem_Excel_Structure_Validation/pandas_multiple.xlsx
+++ b/Problem_Excel_Structure_Validation/pandas_multiple.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>test1.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
         <v>4000001</v>
       </c>
       <c r="C50" t="n">
-        <v>1266.72</v>
+        <v>166.72</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,658 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>to_ankhi.xlsx</t>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B62" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C62" t="n">
+        <v>600.1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B63" t="n">
+        <v>10002</v>
+      </c>
+      <c r="C63" t="n">
+        <v>601</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B64" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C64" t="n">
+        <v>602</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B65" t="n">
+        <v>10004</v>
+      </c>
+      <c r="C65" t="n">
+        <v>603</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B66" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C66" t="n">
+        <v>604</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B67" t="n">
+        <v>10006</v>
+      </c>
+      <c r="C67" t="n">
+        <v>605</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B68" t="n">
+        <v>10007</v>
+      </c>
+      <c r="C68" t="n">
+        <v>606</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B69" t="n">
+        <v>10008</v>
+      </c>
+      <c r="C69" t="n">
+        <v>607</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B70" t="n">
+        <v>10009</v>
+      </c>
+      <c r="C70" t="n">
+        <v>608</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B71" t="n">
+        <v>10010</v>
+      </c>
+      <c r="C71" t="n">
+        <v>609</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B72" t="n">
+        <v>10011</v>
+      </c>
+      <c r="C72" t="n">
+        <v>610</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B73" t="n">
+        <v>10012</v>
+      </c>
+      <c r="C73" t="n">
+        <v>611</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B74" t="n">
+        <v>10013</v>
+      </c>
+      <c r="C74" t="n">
+        <v>612</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B75" t="n">
+        <v>10014</v>
+      </c>
+      <c r="C75" t="n">
+        <v>613</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B76" t="n">
+        <v>10015</v>
+      </c>
+      <c r="C76" t="n">
+        <v>614</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B77" t="n">
+        <v>10016</v>
+      </c>
+      <c r="C77" t="n">
+        <v>615</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B78" t="n">
+        <v>10017</v>
+      </c>
+      <c r="C78" t="n">
+        <v>616</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B79" t="n">
+        <v>10018</v>
+      </c>
+      <c r="C79" t="n">
+        <v>617</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B80" t="n">
+        <v>10019</v>
+      </c>
+      <c r="C80" t="n">
+        <v>618</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B81" t="n">
+        <v>10020</v>
+      </c>
+      <c r="C81" t="n">
+        <v>619</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B82" t="n">
+        <v>10021</v>
+      </c>
+      <c r="C82" t="n">
+        <v>620</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>CA BIWEEKLY</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Source_excel_files</t>
         </is>
       </c>
     </row>
